--- a/cypress/downloads/Listado de Proyectos con Detalles - 09-04-2024.xlsx
+++ b/cypress/downloads/Listado de Proyectos con Detalles - 09-04-2024.xlsx
@@ -61,22 +61,22 @@
     <x:t>Fulgenzi</x:t>
   </x:si>
   <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Completo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>José Matías</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marquez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Federico Lucas</x:t>
+  </x:si>
+  <x:si>
     <x:t>Vivienda Clásica con 2 habitaciones y hall</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Completo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>José Matías</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marquez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Federico Lucas</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -622,34 +622,31 @@
       <x:c r="G2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -660,7 +657,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>22</x:v>
@@ -712,7 +709,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>33</x:v>
@@ -725,6 +722,9 @@
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -749,6 +749,9 @@
       <x:c r="G7" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
@@ -758,7 +761,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>11</x:v>
@@ -771,6 +774,9 @@
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>14</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -795,9 +801,6 @@
       <x:c r="G9" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
@@ -807,7 +810,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>43</x:v>
@@ -869,9 +872,6 @@
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
